--- a/PhieuKiemDinh/PhieuKiemDinh/Resources/Feedback_User.xlsx
+++ b/PhieuKiemDinh/PhieuKiemDinh/Resources/Feedback_User.xlsx
@@ -157,6 +157,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -166,8 +168,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,12 +500,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="6" width="9" style="4"/>
     <col min="7" max="7" width="8" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="4" customWidth="1"/>
@@ -517,16 +517,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,7 +538,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -550,7 +550,7 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -562,7 +562,7 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -574,7 +574,7 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -586,7 +586,7 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -598,7 +598,7 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -610,7 +610,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -622,7 +622,7 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -634,7 +634,7 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -646,7 +646,7 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -658,7 +658,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -670,7 +670,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -682,7 +682,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -694,7 +694,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -706,7 +706,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -718,7 +718,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -730,7 +730,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -742,7 +742,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -754,7 +754,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -766,7 +766,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -778,7 +778,7 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -790,7 +790,7 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -802,7 +802,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -814,7 +814,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -826,7 +826,7 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -838,7 +838,7 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -850,7 +850,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -862,7 +862,7 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -874,7 +874,7 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -886,7 +886,7 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -898,7 +898,7 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -910,7 +910,7 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -922,7 +922,7 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -934,7 +934,7 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -946,7 +946,7 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -958,7 +958,7 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -970,7 +970,7 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -982,7 +982,7 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -994,7 +994,7 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1006,7 +1006,7 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1018,7 +1018,7 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1030,7 +1030,7 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1042,7 +1042,7 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1054,7 +1054,7 @@
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1066,7 +1066,7 @@
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1078,7 +1078,7 @@
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1090,7 +1090,7 @@
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1102,7 +1102,7 @@
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1114,7 +1114,7 @@
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1126,7 +1126,7 @@
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1138,7 +1138,7 @@
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1150,7 +1150,7 @@
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1162,7 +1162,7 @@
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1174,7 +1174,7 @@
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1186,7 +1186,7 @@
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1198,7 +1198,7 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -1210,7 +1210,7 @@
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -1222,7 +1222,7 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -1234,7 +1234,7 @@
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -1246,7 +1246,7 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -1258,7 +1258,7 @@
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>

--- a/PhieuKiemDinh/PhieuKiemDinh/Resources/Feedback_User.xlsx
+++ b/PhieuKiemDinh/PhieuKiemDinh/Resources/Feedback_User.xlsx
@@ -1274,7 +1274,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I63:I1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="13" operator="greaterThan">
       <formula>"&lt;&gt;$I$18"</formula>
     </cfRule>
